--- a/trunk/biz/MC-MSC-Web/qxy接口定义文档2016-8-8/excel导入模板.xlsx
+++ b/trunk/biz/MC-MSC-Web/qxy接口定义文档2016-8-8/excel导入模板.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\巴士\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mkq\svn\trunk\biz\MC-MSC-Web\qxy接口定义文档2016-8-8\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -219,7 +219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="97">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -473,18 +473,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>课次</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>课程名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>数学</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -493,10 +485,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>语文</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>地理</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -517,10 +505,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>按班级导入学生，允许一个班级一次性导入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>家长</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -529,18 +513,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>按照班级导入学生家长，允许一个班级一次性导入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>教师</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>可以一次性全部导入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>学生卡</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -549,10 +525,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>按照班级导入，一次导入一个班级的课程表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -569,15 +541,62 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>需要根据学生学号和机构sid获取学生id，关联到需要导入的家长数据中，家长手机号及邮箱为系统内唯一，如果已经存在则直接创建关联该家长和学生id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入时需要验证教师是否已经存在，如果已经存在则直接覆盖教师信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周四</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周五</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周六</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按班级导入学生，允许一个班级一次性导入
+需要token验证</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>不同机构下学号和学生信息可以重复，学生导入需要验证学生是否已经存在用户表，如果已经存在则需检查该机构下是否应存在该学生，如果不存在则新增学生信息并关联已经存在的uid，如果已经存在，则直接覆盖该学生信息即可，导入成功后需返回成功导入数量</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>需要根据学生学号和机构sid获取学生id，关联到需要导入的家长数据中，家长手机号及邮箱为系统内唯一，如果已经存在则直接创建关联该家长和学生id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>导入时需要验证教师是否已经存在，如果已经存在则直接覆盖教师信息</t>
+    <t>按照班级导入学生家长，允许一个班级一次性导入
+需要token验证</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以一次性全部导入
+需要token验证</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -585,7 +604,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>导入之前需要选择学期年级班级，然后导入一个班级的课程表信息，课程表导入仅包含课程信息，课程教师需要到班级管理中配置</t>
+    <t>按照班级导入，一次导入一个班级的一个周的课程表
+需要token验证</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入之前需要选择学期年级班级和所要导入的学期的周日期，前端需要传入这个课表应用到的七天日期，例如要应用到2016-8-22,2016-8-23,2016-8-24,2016-8-25,2016-8-26,2016-8-27,2016-8-28，然后导入一个班级的课程表信息，课程表导入仅包含课程信息，课程教师需要到班级管理中配置</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -598,7 +622,7 @@
     <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -717,8 +741,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -833,8 +866,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -875,6 +914,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1009,24 +1063,45 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="48" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="20" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="20" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="20" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1690,104 +1765,111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="41.25" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="9" style="5"/>
-    <col min="3" max="3" width="44.25" style="5" customWidth="1"/>
-    <col min="4" max="4" width="100.125" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="5"/>
+    <col min="1" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="34.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="82.125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="41.25" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="41.25" customHeight="1">
-      <c r="A2" s="5">
+    <row r="2" spans="1:5" ht="61.5" customHeight="1">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="61.5" customHeight="1">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="61.5" customHeight="1">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="61.5" customHeight="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="41.25" customHeight="1">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="C5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="61.5" customHeight="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="41.25" customHeight="1">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="41.25" customHeight="1">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="41.25" customHeight="1">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>91</v>
-      </c>
+      <c r="C6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1800,133 +1882,132 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.25" style="1" customWidth="1"/>
-    <col min="8" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="17.75" style="2" customWidth="1"/>
-    <col min="13" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="13.375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9" style="1"/>
-    <col min="17" max="17" width="23.625" style="1" customWidth="1"/>
-    <col min="18" max="20" width="9" style="1"/>
-    <col min="21" max="21" width="11.75" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="5.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="9" style="10"/>
+    <col min="21" max="21" width="11.75" style="10" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17" s="5" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="1">
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="6">
         <v>15235262352</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="9">
         <v>42491</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="6">
         <v>0</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="9">
         <v>41122</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1945,107 +2026,107 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="8.125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="11" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="10" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="10" customWidth="1"/>
+    <col min="6" max="6" width="12.875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="12" style="10" customWidth="1"/>
+    <col min="8" max="8" width="11" style="10" customWidth="1"/>
+    <col min="9" max="9" width="13.75" style="10" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="5" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18" customHeight="1">
-      <c r="A2" s="1">
+    <row r="2" spans="1:9" s="5" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="6">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="6">
         <v>15236256253</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18" customHeight="1">
-      <c r="A3" s="1">
+    <row r="3" spans="1:9" s="5" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="6">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="6">
         <v>15236525654</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2061,91 +2142,91 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="19.125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="22.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.25" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="9" style="10"/>
+    <col min="3" max="3" width="10.625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="10" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="11" customWidth="1"/>
+    <col min="7" max="7" width="9" style="10"/>
+    <col min="8" max="8" width="19.125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="22.625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="10" customWidth="1"/>
+    <col min="11" max="11" width="15.25" style="10" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="22.5" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1">
+    <row r="2" spans="1:11" ht="22.5" customHeight="1">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="6">
         <v>0</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="9">
         <v>29434</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="9">
         <v>37012</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="6">
         <v>0</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="6">
         <v>15262536585</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="7" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2164,50 +2245,50 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="7.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.75" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="7.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12" style="5" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="17.875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="11.75" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
+    <row r="2" spans="1:5" ht="31.5" customHeight="1">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2220,257 +2301,469 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11.75" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="11.75" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="18" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18" customHeight="1">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18" customHeight="1">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18" customHeight="1">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>42583</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="D4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18" customHeight="1">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18" customHeight="1">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>42583</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>42583</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="F6" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18" customHeight="1">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>42583</v>
-      </c>
-      <c r="C5" s="1">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18" customHeight="1">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <v>42583</v>
-      </c>
-      <c r="C6" s="1">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="D8" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18" customHeight="1">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
-        <v>42583</v>
-      </c>
-      <c r="C7" s="1">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3">
-        <v>42583</v>
-      </c>
-      <c r="C8" s="1">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3">
-        <v>42584</v>
-      </c>
-      <c r="C9" s="1">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
+      <c r="D9" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18" customHeight="1">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
-        <v>42584</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="B10" s="6">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18" customHeight="1">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18" customHeight="1">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18" customHeight="1">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6">
+        <v>12</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="18" customHeight="1">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3">
-        <v>42584</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="D14" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3">
-        <v>42584</v>
-      </c>
-      <c r="C12" s="1">
-        <v>3</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="E14" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18" customHeight="1">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6">
+        <v>14</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3">
-        <v>42584</v>
-      </c>
-      <c r="C13" s="1">
-        <v>4</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="D15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="18" customHeight="1">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6">
+        <v>15</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3">
-        <v>42584</v>
-      </c>
-      <c r="C14" s="1">
-        <v>5</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3">
-        <v>42584</v>
-      </c>
-      <c r="C15" s="1">
-        <v>6</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3">
-        <v>42584</v>
-      </c>
-      <c r="C16" s="1">
-        <v>7</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3">
-        <v>42584</v>
-      </c>
-      <c r="C17" s="1">
-        <v>8</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>72</v>
+      <c r="D16" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/biz/MC-MSC-Web/qxy接口定义文档2016-8-8/excel导入模板.xlsx
+++ b/trunk/biz/MC-MSC-Web/qxy接口定义文档2016-8-8/excel导入模板.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mkq\svn\trunk\biz\MC-MSC-Web\qxy接口定义文档2016-8-8\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="18315" windowHeight="9600"/>
+    <workbookView xWindow="480" yWindow="96" windowWidth="18312" windowHeight="9600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="17" r:id="rId1"/>
@@ -69,7 +64,7 @@
     <definedName name="作成日">[6]表紙!$T$27</definedName>
     <definedName name="作成者">[6]表紙!$V$27</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -79,7 +74,7 @@
     <author>落地巴士</author>
   </authors>
   <commentList>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -105,7 +100,7 @@
     <author>落地巴士</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -147,7 +142,7 @@
     <author>落地巴士</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -173,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -198,7 +193,7 @@
     <author>落地巴士</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -219,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="99">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -610,6 +605,14 @@
   </si>
   <si>
     <t>导入之前需要选择学期年级班级和所要导入的学期的周日期，前端需要传入这个课表应用到的七天日期，例如要应用到2016-8-22,2016-8-23,2016-8-24,2016-8-25,2016-8-26,2016-8-27,2016-8-28，然后导入一个班级的课程表信息，课程表导入仅包含课程信息，课程教师需要到班级管理中配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014/04/01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012/08/05</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1477,7 +1480,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1519,7 +1522,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1554,7 +1557,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1765,17 +1768,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="41.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="41.25" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="34.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="82.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="34.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="82.109375" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1881,27 +1884,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.875" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.33203125" style="10" bestFit="1" customWidth="1"/>
     <col min="18" max="20" width="9" style="10"/>
-    <col min="21" max="21" width="11.75" style="10" customWidth="1"/>
+    <col min="21" max="21" width="11.77734375" style="10" customWidth="1"/>
     <col min="22" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
@@ -1977,8 +1982,8 @@
       <c r="F2" s="6">
         <v>15235262352</v>
       </c>
-      <c r="G2" s="9">
-        <v>42491</v>
+      <c r="G2" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>21</v>
@@ -2001,8 +2006,8 @@
       <c r="N2" s="6">
         <v>0</v>
       </c>
-      <c r="O2" s="9">
-        <v>41122</v>
+      <c r="O2" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>27</v>
@@ -2029,17 +2034,17 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="11" customWidth="1"/>
-    <col min="3" max="3" width="10.25" style="10" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="10" customWidth="1"/>
-    <col min="6" max="6" width="12.875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" style="10" customWidth="1"/>
     <col min="7" max="7" width="12" style="10" customWidth="1"/>
     <col min="8" max="8" width="11" style="10" customWidth="1"/>
-    <col min="9" max="9" width="13.75" style="10" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" style="10" customWidth="1"/>
     <col min="10" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
@@ -2145,18 +2150,18 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="2" width="9" style="10"/>
-    <col min="3" max="3" width="10.625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="13.5" style="10" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="11" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" style="11" customWidth="1"/>
     <col min="7" max="7" width="9" style="10"/>
-    <col min="8" max="8" width="19.125" style="11" customWidth="1"/>
-    <col min="9" max="9" width="22.625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="13.5" style="10" customWidth="1"/>
-    <col min="11" max="11" width="15.25" style="10" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" style="11" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" style="10" customWidth="1"/>
+    <col min="11" max="11" width="15.21875" style="10" customWidth="1"/>
     <col min="12" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
@@ -2248,13 +2253,13 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="7.625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="12" style="5" customWidth="1"/>
-    <col min="3" max="3" width="21.625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="17.875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="11.75" style="5" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" style="5" customWidth="1"/>
     <col min="6" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -2307,9 +2312,9 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.75" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="11.75" style="5"/>
+    <col min="1" max="16384" width="11.77734375" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1">

--- a/trunk/biz/MC-MSC-Web/qxy接口定义文档2016-8-8/excel导入模板.xlsx
+++ b/trunk/biz/MC-MSC-Web/qxy接口定义文档2016-8-8/excel导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="96" windowWidth="18312" windowHeight="9600" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="96" windowWidth="18312" windowHeight="9600" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="17" r:id="rId1"/>
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="101">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -613,6 +613,14 @@
   </si>
   <si>
     <t>2012/08/05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001/05/01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1980/08/01</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1066,7 +1074,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1092,9 +1100,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="20" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="20" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1884,30 +1889,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="9" style="10"/>
-    <col min="21" max="21" width="11.77734375" style="10" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="5.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="9" style="9"/>
+    <col min="21" max="21" width="11.77734375" style="9" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="5" customFormat="1" ht="25.5" customHeight="1">
@@ -2036,16 +2041,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="8.109375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" style="10" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="12" style="10" customWidth="1"/>
-    <col min="8" max="8" width="11" style="10" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" style="10" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="8.109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="12" style="9" customWidth="1"/>
+    <col min="8" max="8" width="11" style="9" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" style="9" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" ht="23.25" customHeight="1">
@@ -2146,23 +2151,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="2" width="9" style="10"/>
-    <col min="3" max="3" width="10.6640625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="9" style="10"/>
-    <col min="8" max="8" width="19.109375" style="11" customWidth="1"/>
-    <col min="9" max="9" width="22.6640625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" style="10" customWidth="1"/>
-    <col min="11" max="11" width="15.21875" style="10" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="10"/>
+    <col min="1" max="2" width="9" style="9"/>
+    <col min="3" max="3" width="10.6640625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="9" style="9"/>
+    <col min="8" max="8" width="19.109375" style="10" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="15.21875" style="9" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="22.5" customHeight="1">
@@ -2210,11 +2215,11 @@
       <c r="C2" s="6">
         <v>0</v>
       </c>
-      <c r="D2" s="9">
-        <v>29434</v>
-      </c>
-      <c r="E2" s="9">
-        <v>37012</v>
+      <c r="D2" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>54</v>
@@ -2250,15 +2255,15 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="7.6640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="12" style="5" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" style="11" customWidth="1"/>
     <col min="5" max="5" width="11.77734375" style="5" customWidth="1"/>
     <col min="6" max="16384" width="9" style="5"/>
   </cols>
@@ -2309,7 +2314,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="18" customHeight="1"/>

--- a/trunk/biz/MC-MSC-Web/qxy接口定义文档2016-8-8/excel导入模板.xlsx
+++ b/trunk/biz/MC-MSC-Web/qxy接口定义文档2016-8-8/excel导入模板.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\svn\trunk\biz\MC-MSC-Web\qxy接口定义文档2016-8-8\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="96" windowWidth="18312" windowHeight="9600" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="18315" windowHeight="9600" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="17" r:id="rId1"/>
@@ -13,15 +18,16 @@
     <sheet name="教师" sheetId="13" r:id="rId4"/>
     <sheet name="学生卡" sheetId="15" r:id="rId5"/>
     <sheet name="课程表" sheetId="16" r:id="rId6"/>
+    <sheet name="成绩" sheetId="18" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
   </externalReferences>
   <definedNames>
     <definedName name="\a">#REF!</definedName>
@@ -74,7 +80,7 @@
     <author>落地巴士</author>
   </authors>
   <commentList>
-    <comment ref="N1" authorId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +106,7 @@
     <author>落地巴士</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -115,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -142,7 +148,7 @@
     <author>落地巴士</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -168,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -193,7 +199,7 @@
     <author>落地巴士</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -214,7 +220,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="105">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -621,6 +627,22 @@
   </si>
   <si>
     <t>1980/08/01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生姓名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成绩分数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三林</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01205253</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -633,7 +655,7 @@
     <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -755,6 +777,15 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -1074,7 +1105,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1109,6 +1140,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1485,7 +1528,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1527,7 +1570,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1562,7 +1605,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1782,8 +1825,8 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="41.25" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="34.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="82.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="34.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="82.125" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1893,25 +1936,25 @@
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.375" style="9" bestFit="1" customWidth="1"/>
     <col min="18" max="20" width="9" style="9"/>
-    <col min="21" max="21" width="11.77734375" style="9" customWidth="1"/>
+    <col min="21" max="21" width="11.75" style="9" customWidth="1"/>
     <col min="22" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
@@ -2039,17 +2082,17 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.109375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="8.125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="10" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="9" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.875" style="9" customWidth="1"/>
     <col min="7" max="7" width="12" style="9" customWidth="1"/>
     <col min="8" max="8" width="11" style="9" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" style="9" customWidth="1"/>
+    <col min="9" max="9" width="13.75" style="9" customWidth="1"/>
     <col min="10" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
@@ -2151,22 +2194,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="9" style="9"/>
-    <col min="3" max="3" width="10.6640625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="9" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="10" customWidth="1"/>
     <col min="7" max="7" width="9" style="9"/>
-    <col min="8" max="8" width="19.109375" style="10" customWidth="1"/>
-    <col min="9" max="9" width="22.6640625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" style="9" customWidth="1"/>
-    <col min="11" max="11" width="15.21875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="19.125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="22.625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="9" customWidth="1"/>
+    <col min="11" max="11" width="15.25" style="9" customWidth="1"/>
     <col min="12" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
@@ -2258,13 +2301,13 @@
       <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="7.625" style="5" customWidth="1"/>
     <col min="2" max="2" width="12" style="5" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="17.875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="11.75" style="5" customWidth="1"/>
     <col min="6" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -2317,9 +2360,9 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.75" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="11.77734375" style="5"/>
+    <col min="1" max="16384" width="11.75" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1">
@@ -2780,4 +2823,61 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="12"/>
+    <col min="2" max="2" width="15.125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="14.875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="19.75" style="12" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="14">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>